--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2940216567170027</v>
+        <v>0.29396907485126045</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29471030453247998</v>
+        <v>0.29466342307947307</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00022637942196697346</v>
+        <v>0.00022911862294845307</v>
       </c>
       <c r="E3" s="0">
-        <v>6.183573963403183e-05</v>
+        <v>6.2769911930746515e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-6.3577124221046323e-05</v>
+        <v>-6.2391402694511383e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>4.2265787290994566e-05</v>
+        <v>4.2894301164098481e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.2421216900897654e-05</v>
+        <v>-1.2326979888386736e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0001576242824623714</v>
+        <v>0.00015953964812422995</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>4.3767163251939856e-06</v>
+        <v>4.376629582525382e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29308624979550912</v>
+        <v>0.2928520339053674</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00042887133909609993</v>
+        <v>-0.000531099814480483</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-5.9281390758227811e-06</v>
+        <v>-5.9263001018911343e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.4169346670063168e-06</v>
+        <v>1.4161346551713138e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.0837794278597331e-05</v>
+        <v>-3.0713353946281947e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00060482934894053519</v>
+        <v>-0.00060016658839672312</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.288005662696561e-05</v>
+        <v>-5.3478235910730138e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.0032599018272581e-05</v>
+        <v>-1.0032687621119862e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29480285094367981</v>
+        <v>0.2948155794224071</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0016185489400605318</v>
+        <v>0.0017357226521616035</v>
       </c>
       <c r="D5" s="0">
-        <v>-9.9052973016143921e-05</v>
+        <v>-9.1220405352831918e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00010361375658439047</v>
+        <v>-0.00010422792502785399</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00015083791163832765</v>
+        <v>0.00015135127815287588</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0008400789121647622</v>
+        <v>-0.00084024866590246482</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.087018115109207e-05</v>
+        <v>-2.0898167819392093e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>2.5174308479100611e-05</v>
+        <v>2.520066219156695e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1.9244827059172742e-06</v>
+        <v>1.9236226668217782e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31355454269346089</v>
+        <v>0.31350380182623422</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0082498329296736856</v>
+        <v>0.0082325185348991175</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.8292945984241263e-05</v>
+        <v>4.829550687238966e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.4772502826827908e-05</v>
+        <v>-5.4740047923339052e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.8964235327701283e-05</v>
+        <v>-4.9186998979302573e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019428033147046804</v>
+        <v>-0.0019490614080023309</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.5949669374126785e-07</v>
+        <v>-1.6063959673573436e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31236961997432294</v>
+        <v>0.3123108634303679</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0017013276912758544</v>
+        <v>-0.0017011354125296924</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00013847820400378428</v>
+        <v>-0.00013827779571992394</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00082612666855030805</v>
+        <v>-0.00082578941496330033</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00040136047790551824</v>
+        <v>0.00040210375360079907</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.5849121400293203e-05</v>
+        <v>9.5691807335914446e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>5.85206904424318e-06</v>
+        <v>5.8522907874225538e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.25058957829544742</v>
+        <v>0.25087220922262804</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0013489014030006465</v>
+        <v>-0.001344002174774107</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.5306247450215467e-05</v>
+        <v>-2.5315093048736214e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00024754864049574324</v>
+        <v>-0.00024761238840417961</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-4.6692869572764169e-06</v>
+        <v>-4.7074297286077032e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00031117319638519476</v>
+        <v>-0.00030838564159788858</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>3.2090473536749986e-05</v>
+        <v>3.2092977186481964e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.24668690023619966</v>
+        <v>0.24696175118957064</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>5.4331384334430464e-05</v>
+        <v>5.7201536838939449e-05</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0010791395630022653</v>
+        <v>-0.0010795408641974119</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0060885842974367456</v>
+        <v>-0.0060886619502719466</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00011096429804807966</v>
+        <v>0.000110188284650642</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00018179533766528335</v>
+        <v>-0.0001817899683272046</v>
       </c>
       <c r="I9" s="0">
-        <v>-9.5916823774808249e-07</v>
+        <v>-9.3047416007882086e-07</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.3520085148654992e-06</v>
+        <v>-1.3519648738857803e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.35708199001549279</v>
+        <v>0.3578665841986251</v>
       </c>
       <c r="C10" s="0">
-        <v>0.016882117482075871</v>
+        <v>0.016970329944044668</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-3.5078980895704371e-07</v>
+        <v>-3.5046031261978343e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00013851189230845709</v>
+        <v>-0.00013824749433151979</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.0276039250093579e-06</v>
+        <v>-1.0266333265770859e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00013966145742567399</v>
+        <v>0.00013892580474318545</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0017514245348603068</v>
+        <v>-0.0017608701692073869</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.0431915368203093e-06</v>
+        <v>-1.0358000887555896e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35771047984335624</v>
+        <v>0.3584770800716367</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0026003832132028759</v>
+        <v>0.0026101279571308176</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00046542810890733345</v>
+        <v>-0.00046051261218984705</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0025362661762431482</v>
+        <v>-0.0025201987158315698</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00027233623972885626</v>
+        <v>0.00027295759812175671</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00010135209788338604</v>
+        <v>-0.00010059297388782466</v>
       </c>
       <c r="I11" s="0">
-        <v>-2.0310755138545678e-05</v>
+        <v>-1.9481091185893724e-05</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>7.180137608253645e-06</v>
+        <v>7.1805743259711896e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.3064635465871407</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.01733033406100646</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-2.8821642784213942e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3.4821629092810107e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-7.9741283618498012e-08</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0014007529214504449</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>3.5053862237344191e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29396907485126045</v>
+        <v>0.29394262536321092</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29466342307947307</v>
+        <v>0.29464111207982585</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00022911862294845307</v>
+        <v>0.00022886244339915667</v>
       </c>
       <c r="E3" s="0">
-        <v>6.2769911930746515e-05</v>
+        <v>6.2431386505614121e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-6.2391402694511383e-05</v>
+        <v>-6.2650041950503704e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>4.2894301164098481e-05</v>
+        <v>4.3674193624183231e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.2326979888386736e-05</v>
+        <v>-1.2355660853145416e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00015953964812422995</v>
+        <v>0.00016222501470912091</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>4.376629582525382e-06</v>
+        <v>4.3765903959269714e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2928520339053674</v>
+        <v>0.2929832857930354</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.000531099814480483</v>
+        <v>-0.00054608998311961711</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-5.9263001018911343e-06</v>
+        <v>-5.9245562525447694e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.4161346551713138e-06</v>
+        <v>1.4131862915141827e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.0713353946281947e-05</v>
+        <v>-3.0603218042400316e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00060016658839672312</v>
+        <v>-0.00059579788595158772</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.3478235910730138e-05</v>
+        <v>-5.6008166209731603e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.0032687621119862e-05</v>
+        <v>-1.0039574109610427e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2948155794224071</v>
+        <v>0.2946734008161136</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0017357226521616035</v>
+        <v>0.0016829192110440654</v>
       </c>
       <c r="D5" s="0">
-        <v>-9.1220405352831918e-05</v>
+        <v>-8.7467607268950628e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00010422792502785399</v>
+        <v>-0.00010476947528553987</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00015135127815287588</v>
+        <v>0.000151265239121677</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00084024866590246482</v>
+        <v>-0.00084273628620709076</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.0898167819392093e-05</v>
+        <v>-2.0927528452587541e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>2.520066219156695e-05</v>
+        <v>2.516699155808059e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1.9236226668217782e-06</v>
+        <v>1.9254341746544057e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31350380182623422</v>
+        <v>0.31366744917662304</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0082325185348991175</v>
+        <v>0.0083022616918581246</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.829550687238966e-05</v>
+        <v>4.8298564362285275e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.4740047923339052e-05</v>
+        <v>-5.4519052018225499e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.9186998979302573e-05</v>
+        <v>-4.8787787658221489e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019490614080023309</v>
+        <v>-0.0019485699196618439</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.6063959673573436e-07</v>
+        <v>-1.6374395994667168e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.3123108634303679</v>
+        <v>0.31247459118947624</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0017011354125296924</v>
+        <v>-0.0016882422322091887</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00013827779571992394</v>
+        <v>-0.00013487895322529487</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00082578941496330033</v>
+        <v>-0.00080505001956024521</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00040210375360079907</v>
+        <v>0.00040331142944824438</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.5691807335914446e-05</v>
+        <v>9.5657931667751393e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>5.8522907874225538e-06</v>
+        <v>5.8523119692011072e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.25087220922262804</v>
+        <v>0.24944158761061319</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.001344002174774107</v>
+        <v>-0.0013127237271583546</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.5315093048736214e-05</v>
+        <v>-2.5330029780868658e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00024761238840417961</v>
+        <v>-0.00024797533907403843</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-4.7074297286077032e-06</v>
+        <v>-4.7264348219644988e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00030838564159788858</v>
+        <v>-0.00030434235849151065</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>3.2092977186481964e-05</v>
+        <v>3.209925410757597e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.24696175118957064</v>
+        <v>0.24560125193218829</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>5.7201536838939449e-05</v>
+        <v>4.2444026579977981e-05</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0010795408641974119</v>
+        <v>-0.0010830077972491866</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0060886619502719466</v>
+        <v>-0.0061012557465603516</v>
       </c>
       <c r="G9" s="0">
-        <v>0.000110188284650642</v>
+        <v>0.00011091209886772354</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0001817899683272046</v>
+        <v>-0.00018234312833728512</v>
       </c>
       <c r="I9" s="0">
-        <v>-9.3047416007882086e-07</v>
+        <v>-8.9630241059963205e-07</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.3519648738857803e-06</v>
+        <v>-1.3533188803205309e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.3578665841986251</v>
+        <v>0.35731827302054553</v>
       </c>
       <c r="C10" s="0">
-        <v>0.016970329944044668</v>
+        <v>0.016996705339194167</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-3.5046031261978343e-07</v>
+        <v>-3.5105563387491786e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00013824749433151979</v>
+        <v>-0.00013963816169075915</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.0266333265770859e-06</v>
+        <v>-1.0218555084266065e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00013892580474318545</v>
+        <v>0.00013944176108545187</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0017608701692073869</v>
+        <v>-0.0017166597332572496</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.0358000887555896e-06</v>
+        <v>-1.0479810069741191e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.3584770800716367</v>
+        <v>0.35797565513310681</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0026101279571308176</v>
+        <v>0.0025538991871540484</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00046051261218984705</v>
+        <v>-0.00048153323154332854</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0025201987158315698</v>
+        <v>-0.0025885408542584937</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00027295759812175671</v>
+        <v>0.00027623003068345071</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00010059297388782466</v>
+        <v>-0.0001038276947509941</v>
       </c>
       <c r="I11" s="0">
-        <v>-1.9481091185893724e-05</v>
+        <v>-1.3348520300277521e-05</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>7.1805743259711896e-06</v>
+        <v>7.1798996931771164e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.3064635465871407</v>
+        <v>0.31121562310134759</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.01733033406100646</v>
+        <v>-0.028797740296098807</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-2.8821642784213942e-06</v>
+        <v>5.6527640913110091e-06</v>
       </c>
       <c r="F12" s="0">
-        <v>3.4821629092810107e-06</v>
+        <v>0.00075404361294109136</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-7.9741283618498012e-08</v>
+        <v>0.00013908627401186635</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0014007529214504449</v>
+        <v>0.0020445918242904021</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>3.5053862237344191e-06</v>
+        <v>2.1923040881555167e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.17249914677026623</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.054578190893086409</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.005395253487878884</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.00097688737336335029</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0010625653774458588</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00022265917708784742</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00022233417430156562</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-5.1648126555448037e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.054145327290414352</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.21055283659747218</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>4.7866143590263119e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.2416382587992487e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-5.8608828989191685e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.023384630501903925</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-1.1791169101660337e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29394262536321092</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29464111207982585</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.2929832857930354</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.2946734008161136</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.31366744917662304</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.31247459118947624</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.24944158761061319</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.24560125193218829</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.35731827302054553</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.35797565513310681</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.31121562310134759</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.17249914677026623</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.054145327290414352</v>
+        <v>0.12098596869831788</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.21055283659747218</v>
+        <v>-0.18829020410393443</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>4.7866143590263119e-05</v>
+        <v>3.5983713154185212e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.2416382587992487e-05</v>
+        <v>-0.00050155049203863794</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-5.8608828989191685e-06</v>
+        <v>-0.0032667996981586723</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.023384630501903925</v>
+        <v>-0.017678437867674306</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-1.1791169101660337e-06</v>
+        <v>-0.0083964550758184875</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.0068285049703878387</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.13399949235054087</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0041813010632023601</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0068377915193147424</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.011333246716829001</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.0001041851567993024</v>
       </c>
     </row>
   </sheetData>
